--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,7 +1913,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:ResourceTypeGeneral, datacite:DescriptionType, datacite:ContributorType</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1933,10 +1933,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Related Identifier Type</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
@@ -1958,14 +1962,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>datacite:ARK</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -1983,14 +1995,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>datacite:arXiv</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -2008,14 +2028,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>datacite:bibcode</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>bibcode</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -2033,14 +2061,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t>datacite:DOI</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DOI</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2058,14 +2094,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>datacite:EAN13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>EAN13</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2083,14 +2127,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>datacite:EISSN</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>EISSN</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2108,14 +2160,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+          <t>datacite:Handle</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Handle</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2133,14 +2193,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>datacite:IGSN</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>IGSN</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2158,14 +2226,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>datacite:ISBN</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ISBN</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2183,14 +2259,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>datacite:ISSN</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ISSN</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2208,14 +2292,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>datacite:ISTC</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ISTC</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2233,14 +2325,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>datacite:LISSN</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LISSN</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2258,14 +2358,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>datacite:LISSN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>LISSN</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2283,14 +2391,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>datacite:PMID</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PMID</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2308,14 +2424,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+          <t>datacite:PURL</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PURL</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2333,14 +2457,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>datacite:UPC</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>UPC</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2358,14 +2490,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>datacite:URL</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2383,14 +2523,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>datacite:URN</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>URN</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2408,14 +2556,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>datacite:w3id</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>w3id</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>datacite:RelatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2433,10 +2589,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Relation Type</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
@@ -2458,14 +2618,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
+          <t>datacite:IsCitedBy</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>IsCitedBy</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -2483,14 +2651,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>datacite:Cites</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Cites</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -2508,14 +2684,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>datacite:IsSupplementTo</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>IsSupplementTo</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2533,14 +2717,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>datacite:IsSupplementedBy</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>IsSupplementedBy</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -2558,14 +2750,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>datacite:IsContinuedBy</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>IsContinuedBy</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -2580,6 +2780,2771 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>datacite:Continues</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Continues</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>datacite:Describes</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Describes</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>datacite:IsDescribedBy</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>IsDescribedBy</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>datacite:HasMetadata</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>HasMetadata</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>datacite:IsMetadataFor</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>IsMetadataFor</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>datacite:HasVersion</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>HasVersion</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>datacite:IsVersionOf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>IsVersionOf</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>datacite:IsNewVersionOf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>IsNewVersionOf</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>datacite:IsPreviousVersionOf</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>IsPreviousVersion Of</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>datacite:IsPartOf</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>IsPartOf</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>datacite:HasPart</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>HasPart</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>datacite:IsPublishedIn</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>IsPublishedIn</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>datacite:IsReferencedBy</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>IsReferencedBy</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>datacite:References</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>datacite:IsDocumentedBy</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>IsDocumentedBy</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>datacite:Documents</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>datacite:IsCompiledBy</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>IsCompiledBy</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>datacite:Compiles</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Compiles</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>datacite:IsVariantFormOf</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>IsVariantFormOf</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>datacite:IsOriginalFormOf</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>IsOriginalFormOf</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>datacite:IsIdenticalTo</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>IsIdenticalTo</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>datacite:IsReviewedBy</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>IsReviewedBy</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>datacite:Reviews</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Reviews</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>datacite:IsDerivedFrom</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>IsDerivedFrom</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>datacite:IsSourceOf</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>IsSourceOf</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>datacite:IsRequiredBy</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>IsRequiredBy</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>datacite:Requires</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Requires</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>datacite:Obsoletes</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Obsoletes</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>datacite:RelationType</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>datacite:IsRequiredBy</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>IsRequiredBy</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>datacite:DescriptionType</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Description Type</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>datacite:Abstract</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>datacite:DescriptionType</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>datacite:Methods</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Methods</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>datacite:DescriptionType</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>datacite:SeriesInformation</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SeriesInformation</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>datacite:DescriptionType</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>datacite:TableOfContents</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TableOfContents</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>datacite:DescriptionType</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>datacite:TechnicalInfo</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TechnicalInfo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>datacite:DescriptionType</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Date Type</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>datacite:Accepted</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>datacite:AvailableCopyrighted</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Available Copyrighted</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>datacite:Collected</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>datacite:Description</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>datacite:Created</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>datacite:Issued</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Issued</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>datacite:Submitted</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>datacite:Updated</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Updated</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>datacite:Valid</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>datacite:Withdrawn</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Withdrawn</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Contributor Type</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>datacite:ContactPerson</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ContactPerson</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>datacite:DataCollector</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>DataCollector</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>datacite:DataCurator</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>DataCurator</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>datacite:DataManager</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>DataManager</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>datacite:Distributor</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Distributor</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>datacite:Editor</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Editor</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>datacite:HostingInstitution</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>HostingInstitution</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>datacite:Producer</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Producer</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>datacite:ProjectLeader</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ProjectLeader</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>datacite:ProjectManager</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ProjectManager</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>datacite:ProjectMember</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ProjectMember</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>datacite:RegistrationAgency</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>RegistrationAgency</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>datacite:RegistrationAuthority</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>RegistrationAuthority</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>datacite:RelatedPerson</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>RelatedPerson</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>datacite:Researcher</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Researcher</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>datacite:ResearchGroup</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ResearchGroup</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>datacite:RightsHolder</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>RightsHolder</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>datacite:Sponsor</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Sponsor</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>datacite:Supervisor</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Supervisor</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>datacite:WorkPackageLeader</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>WorkPackageLeader</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>datacite:ResourceCreatorType</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Resource Creator Type</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>datacite:Person</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>datacite:ResourceCreatorType</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>datacite:Organization</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>datacite:ResourceCreatorType</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -5073,10 +5073,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
+          <t>datacite:TitleType</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Title Type</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -5098,14 +5102,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr"/>
+          <t>datacite:AlternativeTitle</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>AlternativeTitle</t>
+        </is>
+      </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>datacite:TitleType</t>
+        </is>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -5123,14 +5135,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr"/>
+          <t>datacite:Subtitle</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Subtitle</t>
+        </is>
+      </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>datacite:TitleType</t>
+        </is>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -5148,14 +5168,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
+          <t>datacite:TranslatedTitle</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>TranslatedTitle</t>
+        </is>
+      </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>datacite:TitleType</t>
+        </is>
+      </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -5173,14 +5201,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr"/>
+          <t>datacite:OtherTitle</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>datacite:TitleType</t>
+        </is>
+      </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:S162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,7 +1913,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral, datacite:DescriptionType, datacite:ContributorType</t>
+          <t>datacite:ResourceTypeGeneral</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -4289,18 +4289,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:OtherDescriptionType</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Contributor Type</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
@@ -4318,22 +4322,18 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>datacite:ContactPerson</t>
+          <t>datacite:ContributorType</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ContactPerson</t>
+          <t>Contributor Type</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>datacite:ContributorType</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4351,12 +4351,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>datacite:DataCollector</t>
+          <t>datacite:ContactPerson</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DataCollector</t>
+          <t>ContactPerson</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4384,12 +4384,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>datacite:DataCurator</t>
+          <t>datacite:DataCollector</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DataCurator</t>
+          <t>DataCollector</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4417,12 +4417,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>datacite:DataManager</t>
+          <t>datacite:DataCurator</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DataManager</t>
+          <t>DataCurator</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4450,12 +4450,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>datacite:Distributor</t>
+          <t>datacite:DataManager</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Distributor</t>
+          <t>DataManager</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4483,12 +4483,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>datacite:Editor</t>
+          <t>datacite:Distributor</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>Distributor</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4516,12 +4516,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>datacite:HostingInstitution</t>
+          <t>datacite:Editor</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>HostingInstitution</t>
+          <t>Editor</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -4549,12 +4549,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>datacite:Producer</t>
+          <t>datacite:HostingInstitution</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Producer</t>
+          <t>HostingInstitution</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -4582,12 +4582,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>datacite:ProjectLeader</t>
+          <t>datacite:Producer</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ProjectLeader</t>
+          <t>Producer</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -4615,12 +4615,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>datacite:ProjectManager</t>
+          <t>datacite:ProjectLeader</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ProjectManager</t>
+          <t>ProjectLeader</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -4648,12 +4648,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>datacite:ProjectMember</t>
+          <t>datacite:ProjectManager</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ProjectMember</t>
+          <t>ProjectManager</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -4681,12 +4681,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>datacite:RegistrationAgency</t>
+          <t>datacite:ProjectMember</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>RegistrationAgency</t>
+          <t>ProjectMember</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -4714,12 +4714,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>datacite:RegistrationAuthority</t>
+          <t>datacite:RegistrationAgency</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RegistrationAuthority</t>
+          <t>RegistrationAgency</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -4747,12 +4747,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>datacite:RelatedPerson</t>
+          <t>datacite:RegistrationAuthority</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>RegistrationAuthority</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -4780,12 +4780,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>datacite:Researcher</t>
+          <t>datacite:RelatedPerson</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Researcher</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -4813,12 +4813,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>datacite:ResearchGroup</t>
+          <t>datacite:Researcher</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ResearchGroup</t>
+          <t>Researcher</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -4846,12 +4846,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>datacite:RightsHolder</t>
+          <t>datacite:ResearchGroup</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>RightsHolder</t>
+          <t>ResearchGroup</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -4879,12 +4879,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>datacite:Sponsor</t>
+          <t>datacite:RightsHolder</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sponsor</t>
+          <t>RightsHolder</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -4912,12 +4912,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>datacite:Supervisor</t>
+          <t>datacite:Sponsor</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Supervisor</t>
+          <t>Sponsor</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -4945,12 +4945,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>datacite:WorkPackageLeader</t>
+          <t>datacite:Supervisor</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WorkPackageLeader</t>
+          <t>Supervisor</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -4978,18 +4978,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>datacite:ResourceCreatorType</t>
+          <t>datacite:WorkPackageLeader</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Resource Creator Type</t>
+          <t>WorkPackageLeader</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -5007,12 +5011,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>datacite:Person</t>
+          <t>datacite:OtherContributorType</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5020,7 +5024,7 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>datacite:ResourceCreatorType</t>
+          <t>datacite:ContributorType</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -5040,22 +5044,18 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>datacite:Organization</t>
+          <t>datacite:ResourceCreatorType</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Resource Creator Type</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>datacite:ResourceCreatorType</t>
-        </is>
-      </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -5073,18 +5073,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>datacite:TitleType</t>
+          <t>datacite:Person</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Title Type</t>
+          <t>Person</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>datacite:ResourceCreatorType</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -5102,12 +5106,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>datacite:AlternativeTitle</t>
+          <t>datacite:Organization</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AlternativeTitle</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5115,7 +5119,7 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>datacite:TitleType</t>
+          <t>datacite:ResourceCreatorType</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -5135,22 +5139,18 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>datacite:Subtitle</t>
+          <t>datacite:TitleType</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Subtitle</t>
+          <t>Title Type</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>datacite:TitleType</t>
-        </is>
-      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -5168,12 +5168,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>datacite:TranslatedTitle</t>
+          <t>datacite:AlternativeTitle</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TranslatedTitle</t>
+          <t>AlternativeTitle</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5201,12 +5201,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>datacite:OtherTitle</t>
+          <t>datacite:Subtitle</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Subtitle</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5234,14 +5234,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr"/>
+          <t>datacite:TranslatedTitle</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TranslatedTitle</t>
+        </is>
+      </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>datacite:TitleType</t>
+        </is>
+      </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -5259,14 +5267,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr"/>
+          <t>datacite:OtherTitle</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>datacite:TitleType</t>
+        </is>
+      </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -5581,6 +5597,56 @@
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
     </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S162"/>
+  <dimension ref="A1:S163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,12 +3992,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>datacite:AvailableCopyrighted</t>
+          <t>datacite:Available</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Available Copyrighted</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4025,22 +4025,18 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>datacite:Collected</t>
+          <t>datacite:Copyrighted</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Copyrighted</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>datacite:DateType</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -4058,12 +4054,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>datacite:Description</t>
+          <t>datacite:Collected</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4091,12 +4087,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>datacite:Created</t>
+          <t>datacite:Description</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4124,12 +4120,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>datacite:Issued</t>
+          <t>datacite:Created</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Issued</t>
+          <t>Created</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4157,12 +4153,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>datacite:Submitted</t>
+          <t>datacite:Issued</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Issued</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4190,12 +4186,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>datacite:Updated</t>
+          <t>datacite:Submitted</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Updated</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4223,12 +4219,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>datacite:Valid</t>
+          <t>datacite:Updated</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Valid</t>
+          <t>Updated</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4256,12 +4252,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>datacite:Withdrawn</t>
+          <t>datacite:Valid</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Withdrawn</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4289,12 +4285,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>datacite:OtherDescriptionType</t>
+          <t>datacite:Withdrawn</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Withdrawn</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4322,18 +4318,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:OtherDescriptionType</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Contributor Type</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>datacite:DateType</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4351,22 +4351,18 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>datacite:ContactPerson</t>
+          <t>datacite:ContributorType</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ContactPerson</t>
+          <t>Contributor Type</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>datacite:ContributorType</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -4384,12 +4380,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>datacite:DataCollector</t>
+          <t>datacite:ContactPerson</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DataCollector</t>
+          <t>ContactPerson</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4417,12 +4413,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>datacite:DataCurator</t>
+          <t>datacite:DataCollector</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DataCurator</t>
+          <t>DataCollector</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4450,12 +4446,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>datacite:DataManager</t>
+          <t>datacite:DataCurator</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DataManager</t>
+          <t>DataCurator</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4483,12 +4479,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>datacite:Distributor</t>
+          <t>datacite:DataManager</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Distributor</t>
+          <t>DataManager</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4516,12 +4512,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>datacite:Editor</t>
+          <t>datacite:Distributor</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>Distributor</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -4549,12 +4545,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>datacite:HostingInstitution</t>
+          <t>datacite:Editor</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>HostingInstitution</t>
+          <t>Editor</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -4582,12 +4578,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>datacite:Producer</t>
+          <t>datacite:HostingInstitution</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Producer</t>
+          <t>HostingInstitution</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -4615,12 +4611,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>datacite:ProjectLeader</t>
+          <t>datacite:Producer</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ProjectLeader</t>
+          <t>Producer</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -4648,12 +4644,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>datacite:ProjectManager</t>
+          <t>datacite:ProjectLeader</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ProjectManager</t>
+          <t>ProjectLeader</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -4681,12 +4677,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>datacite:ProjectMember</t>
+          <t>datacite:ProjectManager</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ProjectMember</t>
+          <t>ProjectManager</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -4714,12 +4710,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>datacite:RegistrationAgency</t>
+          <t>datacite:ProjectMember</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RegistrationAgency</t>
+          <t>ProjectMember</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -4747,12 +4743,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>datacite:RegistrationAuthority</t>
+          <t>datacite:RegistrationAgency</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>RegistrationAuthority</t>
+          <t>RegistrationAgency</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -4780,12 +4776,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>datacite:RelatedPerson</t>
+          <t>datacite:RegistrationAuthority</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>RegistrationAuthority</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -4813,12 +4809,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>datacite:Researcher</t>
+          <t>datacite:RelatedPerson</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Researcher</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -4846,12 +4842,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>datacite:ResearchGroup</t>
+          <t>datacite:Researcher</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ResearchGroup</t>
+          <t>Researcher</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -4879,12 +4875,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>datacite:RightsHolder</t>
+          <t>datacite:ResearchGroup</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RightsHolder</t>
+          <t>ResearchGroup</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -4912,12 +4908,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>datacite:Sponsor</t>
+          <t>datacite:RightsHolder</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sponsor</t>
+          <t>RightsHolder</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -4945,12 +4941,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>datacite:Supervisor</t>
+          <t>datacite:Sponsor</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Supervisor</t>
+          <t>Sponsor</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -4978,12 +4974,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>datacite:WorkPackageLeader</t>
+          <t>datacite:Supervisor</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>WorkPackageLeader</t>
+          <t>Supervisor</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5011,12 +5007,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>datacite:OtherContributorType</t>
+          <t>datacite:WorkPackageLeader</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>WorkPackageLeader</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5044,18 +5040,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>datacite:ResourceCreatorType</t>
+          <t>datacite:OtherContributorType</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Resource Creator Type</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>datacite:ContributorType</t>
+        </is>
+      </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -5073,22 +5073,18 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>datacite:Person</t>
+          <t>datacite:ResourceCreatorType</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Resource Creator Type</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>datacite:ResourceCreatorType</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -5106,12 +5102,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>datacite:Organization</t>
+          <t>datacite:Person</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Person</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5139,18 +5135,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>datacite:TitleType</t>
+          <t>datacite:Organization</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Title Type</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>datacite:ResourceCreatorType</t>
+        </is>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -5168,22 +5168,18 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>datacite:AlternativeTitle</t>
+          <t>datacite:TitleType</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AlternativeTitle</t>
+          <t>Title Type</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>datacite:TitleType</t>
-        </is>
-      </c>
+      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -5201,12 +5197,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>datacite:Subtitle</t>
+          <t>datacite:AlternativeTitle</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Subtitle</t>
+          <t>AlternativeTitle</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5234,12 +5230,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>datacite:TranslatedTitle</t>
+          <t>datacite:Subtitle</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TranslatedTitle</t>
+          <t>Subtitle</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5267,12 +5263,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>datacite:OtherTitle</t>
+          <t>datacite:TranslatedTitle</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TranslatedTitle</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5300,14 +5296,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr"/>
+          <t>datacite:OtherTitle</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>datacite:TitleType</t>
+        </is>
+      </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
@@ -5647,6 +5651,31 @@
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr"/>
     </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S163"/>
+  <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/datacite/v4.4</t>
+          <t>http://purl.org/datacite/v4.5</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/datacite/v4.4/</t>
+          <t>http://purl.org/datacite/v4.5/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Datacite Controlled Terms</t>
+          <t>DataCite Controlled Terms</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Controlled vocabulary of terms used in Datacite Schema 4.4</t>
+          <t>Controlled vocabulary of terms used in Datacite Schema 4.5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>4.5.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -976,17 +976,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Resource Type General</t>
+          <t>resourceTypeGeneral</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>This is a set of controlled terms from DataCite/DCMI for the category of resource being described.</t>
+          <t>The general type of a resource.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1154,7 +1154,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1187,7 +1187,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1220,7 +1220,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1286,7 +1286,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1319,7 +1319,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1405,12 +1405,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>datacite:InteractiveResource</t>
+          <t>datacite:Instrument</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>InteractiveResource</t>
+          <t>Instrument</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1418,7 +1418,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>datacite:Journal</t>
+          <t>datacite:InteractiveResource</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Journal</t>
+          <t>InteractiveResource</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1451,7 +1451,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1471,12 +1471,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>datacite:JournalArticle</t>
+          <t>datacite:Journal</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JournalArticle</t>
+          <t>Journal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1504,12 +1504,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>datacite:Model</t>
+          <t>datacite:JournalArticle</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Model</t>
+          <t>JournalArticle</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1537,12 +1537,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>datacite:OutputManagementPlan</t>
+          <t>datacite:Model</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>OutputManagementPlan</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1550,7 +1550,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1570,12 +1570,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>datacite:PeerReview</t>
+          <t>datacite:OutputManagementPlan</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PeerReview</t>
+          <t>OutputManagementPlan</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1583,7 +1583,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1603,12 +1603,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>datacite:PhysicalObject</t>
+          <t>datacite:PeerReview</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PhysicalObject</t>
+          <t>PeerReview</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1616,7 +1616,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1636,12 +1636,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>datacite:Preprint</t>
+          <t>datacite:PhysicalObject</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Preprint</t>
+          <t>PhysicalObject</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1649,7 +1649,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1669,12 +1669,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>datacite:Report</t>
+          <t>datacite:Preprint</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Report</t>
+          <t>Preprint</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1682,7 +1682,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1702,12 +1702,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>datacite:Service</t>
+          <t>datacite:Report</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Report</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1715,7 +1715,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1735,12 +1735,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>datacite:Software</t>
+          <t>datacite:Service</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1768,12 +1768,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>datacite:Sound</t>
+          <t>datacite:Software</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sound</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1801,12 +1801,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>datacite:Standard</t>
+          <t>datacite:Sound</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Sound</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1814,7 +1814,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1834,12 +1834,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>datacite:Text</t>
+          <t>datacite:Standard</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1847,7 +1847,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1867,12 +1867,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>datacite:Workflow</t>
+          <t>datacite:StudyRegistration</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Workflow</t>
+          <t>StudyRegistration</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1880,7 +1880,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1900,12 +1900,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>datacite:Other</t>
+          <t>datacite:Text</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1913,7 +1913,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>datacite:ResourceTypeGeneral</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1933,18 +1933,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:Workflow</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Related Identifier Type</t>
+          <t>Workflow</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>datacite:resourceTypeGeneral</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -1962,12 +1966,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>datacite:ARK</t>
+          <t>datacite:Other</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1975,7 +1979,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1995,22 +1999,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>datacite:arXiv</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>arXiv</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>relatedIdentifierType</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>The type of the RelatedIdentifier.</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>datacite:RelatedIdentifierType</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -2028,20 +2032,28 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>datacite:bibcode</t>
+          <t>datacite:ARK</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bibcode</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A URI designed to support long-term access to information objects. In general, ARK syntax is of the form (brackets, []. indicate optional elements: [http://NMA/]ark:/NAAN/Name [Qualifier]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Archival Resource Key</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2061,20 +2073,28 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>datacite:DOI</t>
+          <t>datacite:arXiv</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DOI</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+          <t>arXiv</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>arXiv.org is a repository of preprints of scientific papers in the fields of mathematics, physics, astronomy, computer science, quantitative biology, statistics, and quantitative finance.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>arXiv identifier</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2094,20 +2114,28 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>datacite:EAN13</t>
+          <t>datacite:bibcode</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EAN13</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+          <t>bibcode</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A standardized 19-character identifier according to the syntax yyyyjjjjjvvvvmppppa. See http://info-uri.info/registry/OAIHandler?verb=GetRecord&amp;metadataPrefix=reg&amp;identifier=info:bibcode/.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Astrophysics Data System bibliographic codes</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2127,20 +2155,28 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>datacite:EISSN</t>
+          <t>datacite:DOI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EISSN</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+          <t>DOI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A character string used to uniquely identify an object. A DOI name is divided into two parts, a prefix and a suffix, separated by a slash.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Digital Object Identifier</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2160,20 +2196,28 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>datacite:Handle</t>
+          <t>datacite:EAN13</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Handle</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+          <t>EAN13</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A 13-digit barcoding standard that is a superset of the original 12-digit Universal Product Code (UPC) system.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>European Article Number (now renamed International Article Number, but retaining the original acronym)</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2193,20 +2237,28 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>datacite:IGSN</t>
+          <t>datacite:EISSN</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IGSN</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+          <t>EISSN</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ISSN used to identify periodicals in electronic form (eISSN or e-ISSN).</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>A 13-digit barcoding standard that is a superset of the original 12-digit Universal Product Code (UPC) system.</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2226,20 +2278,28 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>datacite:ISBN</t>
+          <t>datacite:Handle</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ISBN</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+          <t>Handle</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>This refers specifically to an ID in the Handle system operated by the Corporation for National Research Initiatives (CNRI).</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Handle</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2259,20 +2319,28 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>datacite:ISSN</t>
+          <t>datacite:IGSN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ISSN</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+          <t>IGSN</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A code that uniquely identifies samples from our natural environment and related features-of-interest.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>International Generic Sample Number</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2292,20 +2360,28 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>datacite:ISTC</t>
+          <t>datacite:ISBN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ISTC</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+          <t>ISBN</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A unique numeric book identifier. There are 2 formats: a 10-digit ISBN format and a 13-digit ISBN.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>International Standard Book Number</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2325,20 +2401,28 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>datacite:LISSN</t>
+          <t>datacite:ISSN</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LISSN</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+          <t>ISSN</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A unique 8-digit number used to identify a print or electronic periodical publication.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>International Standard Serial Number</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2358,20 +2442,28 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>datacite:LISSN</t>
+          <t>datacite:ISTC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LISSN</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+          <t>ISTC</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A unique “number” assigned to a textual work. An ISTC consists of 16 numbers and/or letters.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>International Standard Text Code</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2391,20 +2483,28 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>datacite:PMID</t>
+          <t>datacite:LISSN</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PMID</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+          <t>LISSN</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>The linking ISSN or ISSN-L enables collocation or linking among different media versions of a continuing resource.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Linking ISSN</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2424,20 +2524,28 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>datacite:PURL</t>
+          <t>datacite:LISSN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PURL</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+          <t>LISSN</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A unique identifier for data in the Life Science domain. Format: urn:lsid:authority:namespace:identifier:revision.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Life Science Identifiers</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2457,20 +2565,28 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>datacite:UPC</t>
+          <t>datacite:PMID</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>UPC</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+          <t>PMID</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A unique number assigned to each PubMed record.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PubMed identifier</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2490,20 +2606,28 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>datacite:URL</t>
+          <t>datacite:PURL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+          <t>PURL</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A PURL has three parts: (1) a protocol, (2) a resolver address, and (3) a name.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Persistent Uniform Resource Locator</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2523,20 +2647,28 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>datacite:URN</t>
+          <t>datacite:UPC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>URN</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+          <t>UPC</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A barcode symbology used for tracking trade items in stores. Its most common form, the UPC-A, consists of 12 numerical digits.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Universal Product Code</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2556,20 +2688,28 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>datacite:w3id</t>
+          <t>datacite:URL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>w3id</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Also known as web address, a URL is a specific character string that constitutes a reference to a resource. The syntax is: scheme://domain:port/path?query_string#fragment_id.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Uniform Resource Locator</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>datacite:RelatedIdentifierType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2589,18 +2729,30 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:URN</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Relation Type</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+          <t>URN</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A unique and persistent identifier of an electronic document. The syntax is: urn:&lt;NID&gt;:&lt;NSS&gt;. The leading urn: sequence is case-insensitive, &lt;NID&gt; is the namespace identifier, &lt;NSS&gt; is the namespace-specific string.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Uniform Resource Name</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>datacite:relatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -2618,20 +2770,28 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>datacite:IsCitedBy</t>
+          <t>datacite:w3id</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>IsCitedBy</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+          <t>w3id</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Mostly used to publish vocabularies and ontologies. The letters ‘w3’ stand for “World Wide Web”.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Permanent identifier for Web applications</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2651,22 +2811,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>datacite:Cites</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cites</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>relationType</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Description of the relationship of the resource being registered (A) and the related resource (B).</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>datacite:RelationType</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -2684,12 +2844,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>datacite:IsSupplementTo</t>
+          <t>datacite:IsCitedBy</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>IsSupplementTo</t>
+          <t>IsCitedBy</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2697,7 +2857,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2717,12 +2877,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>datacite:IsSupplementedBy</t>
+          <t>datacite:Cites</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>IsSupplementedBy</t>
+          <t>Cites</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -2730,7 +2890,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2750,12 +2910,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>datacite:IsContinuedBy</t>
+          <t>datacite:IsSupplementTo</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>IsContinuedBy</t>
+          <t>IsSupplementTo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -2763,7 +2923,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2783,12 +2943,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>datacite:Continues</t>
+          <t>datacite:IsSupplementedBy</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Continues</t>
+          <t>IsSupplementedBy</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -2796,7 +2956,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2816,12 +2976,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>datacite:Describes</t>
+          <t>datacite:IsContinuedBy</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Describes</t>
+          <t>IsContinuedBy</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -2829,7 +2989,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2849,12 +3009,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>datacite:IsDescribedBy</t>
+          <t>datacite:Continues</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>IsDescribedBy</t>
+          <t>Continues</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2862,7 +3022,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2882,12 +3042,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>datacite:HasMetadata</t>
+          <t>datacite:Describes</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>HasMetadata</t>
+          <t>Describes</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2895,7 +3055,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2915,12 +3075,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>datacite:IsMetadataFor</t>
+          <t>datacite:IsDescribedBy</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>IsMetadataFor</t>
+          <t>IsDescribedBy</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2928,7 +3088,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2948,12 +3108,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>datacite:HasVersion</t>
+          <t>datacite:HasMetadata</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HasVersion</t>
+          <t>HasMetadata</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2961,7 +3121,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2981,12 +3141,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>datacite:IsVersionOf</t>
+          <t>datacite:IsMetadataFor</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>IsVersionOf</t>
+          <t>IsMetadataFor</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -2994,7 +3154,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -3014,12 +3174,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>datacite:IsNewVersionOf</t>
+          <t>datacite:HasVersion</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>IsNewVersionOf</t>
+          <t>HasVersion</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3027,7 +3187,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -3047,12 +3207,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>datacite:IsPreviousVersionOf</t>
+          <t>datacite:IsVersionOf</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>IsPreviousVersion Of</t>
+          <t>IsVersionOf</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3060,7 +3220,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -3080,12 +3240,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>datacite:IsPartOf</t>
+          <t>datacite:IsNewVersionOf</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IsPartOf</t>
+          <t>IsNewVersionOf</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3093,7 +3253,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -3113,12 +3273,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>datacite:HasPart</t>
+          <t>datacite:IsPreviousVersionOf</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HasPart</t>
+          <t>IsPreviousVersion Of</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3126,7 +3286,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -3146,12 +3306,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>datacite:IsPublishedIn</t>
+          <t>datacite:IsPartOf</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>IsPublishedIn</t>
+          <t>IsPartOf</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3159,7 +3319,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -3179,12 +3339,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>datacite:IsReferencedBy</t>
+          <t>datacite:HasPart</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>IsReferencedBy</t>
+          <t>HasPart</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3192,7 +3352,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3212,12 +3372,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>datacite:References</t>
+          <t>datacite:IsPublishedIn</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>IsPublishedIn</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3225,7 +3385,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3245,12 +3405,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>datacite:IsDocumentedBy</t>
+          <t>datacite:IsReferencedBy</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IsDocumentedBy</t>
+          <t>IsReferencedBy</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3258,7 +3418,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3278,12 +3438,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>datacite:Documents</t>
+          <t>datacite:References</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>References</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3291,7 +3451,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3311,12 +3471,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>datacite:IsCompiledBy</t>
+          <t>datacite:IsDocumentedBy</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>IsCompiledBy</t>
+          <t>IsDocumentedBy</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3324,7 +3484,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3344,12 +3504,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>datacite:Compiles</t>
+          <t>datacite:Documents</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Compiles</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3357,7 +3517,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3377,12 +3537,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>datacite:IsVariantFormOf</t>
+          <t>datacite:IsCompiledBy</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IsVariantFormOf</t>
+          <t>IsCompiledBy</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3390,7 +3550,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3410,12 +3570,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>datacite:IsOriginalFormOf</t>
+          <t>datacite:Compiles</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>IsOriginalFormOf</t>
+          <t>Compiles</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3423,7 +3583,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3443,12 +3603,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>datacite:IsIdenticalTo</t>
+          <t>datacite:IsVariantFormOf</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IsIdenticalTo</t>
+          <t>IsVariantFormOf</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3456,7 +3616,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3476,12 +3636,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>datacite:IsReviewedBy</t>
+          <t>datacite:IsOriginalFormOf</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IsReviewedBy</t>
+          <t>IsOriginalFormOf</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3489,7 +3649,7 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3509,12 +3669,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>datacite:Reviews</t>
+          <t>datacite:IsIdenticalTo</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Reviews</t>
+          <t>IsIdenticalTo</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3522,7 +3682,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3542,12 +3702,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>datacite:IsDerivedFrom</t>
+          <t>datacite:IsReviewedBy</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IsDerivedFrom</t>
+          <t>IsReviewedBy</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3555,7 +3715,7 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3575,12 +3735,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>datacite:IsSourceOf</t>
+          <t>datacite:Reviews</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IsSourceOf</t>
+          <t>Reviews</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3588,7 +3748,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3608,12 +3768,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>datacite:IsRequiredBy</t>
+          <t>datacite:IsDerivedFrom</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IsRequiredBy</t>
+          <t>IsDerivedFrom</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3621,7 +3781,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3641,12 +3801,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>datacite:Requires</t>
+          <t>datacite:IsSourceOf</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Requires</t>
+          <t>IsSourceOf</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -3654,7 +3814,7 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3674,12 +3834,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>datacite:Obsoletes</t>
+          <t>datacite:IsRequiredBy</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Obsoletes</t>
+          <t>IsRequiredBy</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -3687,7 +3847,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>datacite:RelationType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3707,18 +3867,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>datacite:IsRequiredBy</t>
+          <t>datacite:Requires</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IsRequiredBy</t>
+          <t>Requires</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>datacite:relationType</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -3736,18 +3900,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>datacite:DescriptionType</t>
+          <t>datacite:Obsoletes</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Description Type</t>
+          <t>Obsoletes</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>datacite:relationType</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
@@ -3765,12 +3933,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>datacite:Abstract</t>
+          <t>datacite:IsRequiredBy</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>IsRequiredBy</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -3778,7 +3946,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>datacite:DescriptionType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3798,12 +3966,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>datacite:Methods</t>
+          <t>datacite:IsCollectedBy</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Methods</t>
+          <t>IsCollectedBy</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -3811,7 +3979,7 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>datacite:DescriptionType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3831,12 +3999,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>datacite:SeriesInformation</t>
+          <t>datacite:Collects</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SeriesInformation</t>
+          <t>Collects</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -3844,7 +4012,7 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>datacite:DescriptionType</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3864,22 +4032,18 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>datacite:TableOfContents</t>
+          <t>datacite:descriptionType</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TableOfContents</t>
+          <t>descriptionType</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>datacite:DescriptionType</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
@@ -3897,20 +4061,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>datacite:TechnicalInfo</t>
+          <t>datacite:Abstract</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TechnicalInfo</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A brief description of the resource and the context in which the resource was created.</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>datacite:DescriptionType</t>
+          <t>datacite:descriptionType</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3930,18 +4098,26 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:Methods</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Date Type</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>Methods</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>The methodology employed for the study or research.</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>datacite:descriptionType</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -3959,20 +4135,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>datacite:Accepted</t>
+          <t>datacite:SeriesInformation</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>SeriesInformation</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Information about a repeating series, such as volume, issue, number.</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:descriptionType</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3992,20 +4172,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>datacite:Available</t>
+          <t>datacite:TableOfContents</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>TableOfContents</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>A listing of the Table of Contents.</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:descriptionType</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -4025,18 +4209,26 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>datacite:Copyrighted</t>
+          <t>datacite:TechnicalInfo</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Copyrighted</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
+          <t>TechnicalInfo</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Detailed information that may be associated with design, implementation, operation, use, and/or maintenance of a process, system, or instrument.</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>datacite:descriptionType</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -4054,20 +4246,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>datacite:Collected</t>
+          <t>datacite:OtherDescriptionType</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Other description information that does not fit into an existing category.</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:descriptionType</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -4087,22 +4283,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>datacite:Description</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>dateType</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>The type of date. Use RKMS‐ISO8601 standard for depicting date ranges.To indicate the end of an embargo period, use Available. To indicate the start of an embargo period, use Submitted or Accepted, as appropriate.</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>datacite:DateType</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -4120,20 +4316,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>datacite:Created</t>
+          <t>datacite:Accepted</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>The date that the publisher accepted the resource into their system.</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -4153,20 +4353,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>datacite:Issued</t>
+          <t>datacite:Available</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Issued</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>The date that the publisher accepted the resource into their system.</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -4186,20 +4390,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>datacite:Submitted</t>
+          <t>datacite:Copyrighted</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>Copyrighted</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>The specific, documented date at which the resource receives a copyrighted status, if applicable.</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -4219,20 +4427,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>datacite:Updated</t>
+          <t>datacite:Collected</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Updated</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>The date or date range in which the resource content was collected.</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -4252,20 +4464,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>datacite:Valid</t>
+          <t>datacite:Created</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Valid</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>The date the resource itself was put together; this could refer to a timeframe in ancient history, a date range, or a single date for a final component, e.g., the finalised file with all the data.</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -4285,20 +4501,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>datacite:Withdrawn</t>
+          <t>datacite:Issued</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Withdrawn</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>Issued</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>The date that the resource is published or distributed, e.g., to a data centre.</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -4318,7 +4538,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>datacite:OtherDescriptionType</t>
+          <t>datacite:OtherDateType</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4326,12 +4546,16 @@
           <t>Other</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Other date that does not fit into an existing category.</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>datacite:DateType</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4351,18 +4575,26 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:Submitted</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Contributor Type</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>The date the creator submits the resource to the publisher. This could be different from Accepted if the publisher then applies a selection process.</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>datacite:dateType</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -4380,20 +4612,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>datacite:ContactPerson</t>
+          <t>datacite:Updated</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ContactPerson</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
+          <t>Updated</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>The date of the last update to the resource, when the resource is being added to. May be a range.</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -4413,20 +4649,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>datacite:DataCollector</t>
+          <t>datacite:Valid</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DataCollector</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>The date or date range during which the dataset or resource is accurate.</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -4446,20 +4686,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>datacite:DataCurator</t>
+          <t>datacite:Withdrawn</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DataCurator</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
+          <t>Withdrawn</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>The date the resource is removed.</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4479,22 +4723,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>datacite:DataManager</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DataManager</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>contributorType</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>The type of contributor of the resource.</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>datacite:ContributorType</t>
-        </is>
-      </c>
+      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -4512,20 +4756,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>datacite:Distributor</t>
+          <t>datacite:ContactPerson</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Distributor</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
+          <t>ContactPerson</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Person with knowledge of how to access, troubleshoot, or otherwise field issues related to the resource.</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -4545,20 +4793,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>datacite:Editor</t>
+          <t>datacite:DataCollector</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Editor</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>DataCollector</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Person/institution responsible for finding or gathering/collecting data under the guidelines of the author(s) or Principal Investigator (PI).</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -4578,20 +4830,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>datacite:HostingInstitution</t>
+          <t>datacite:DataCurator</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>HostingInstitution</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>DataCurator</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Person tasked with reviewing, enhancing, cleaning, or standardizing metadata and the associated data submitted for storage, use, and maintenance within a data centre or repository.</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4611,20 +4867,24 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>datacite:Producer</t>
+          <t>datacite:DataManager</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Producer</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>DataManager</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Person (or organisation with a staff of data managers, such as a data centre) responsible for maintaining the finished resource.</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -4644,20 +4904,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>datacite:ProjectLeader</t>
+          <t>datacite:Distributor</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ProjectLeader</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>Distributor</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Institution tasked with responsibility to generate/disseminate copies of the resource in either electronic or print form.</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
@@ -4677,20 +4941,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>datacite:ProjectManager</t>
+          <t>datacite:Editor</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ProjectManager</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>Editor</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>A person who oversees the details related to the publication format of the resource.</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -4710,20 +4978,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>datacite:ProjectMember</t>
+          <t>datacite:HostingInstitution</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ProjectMember</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>HostingInstitution</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Typically, the organisation allowing the resource to be available on the internet through the provision of its hardware/software/operating support.</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4743,20 +5015,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>datacite:RegistrationAgency</t>
+          <t>datacite:Producer</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>RegistrationAgency</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>Producer</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Typically, a person or organisation responsible for the artistry and form of a media product.</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4776,20 +5052,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>datacite:RegistrationAuthority</t>
+          <t>datacite:ProjectLeader</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>RegistrationAuthority</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>ProjectLeader</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Person officially designated as head of project team or sub- project team instrumental in the work necessary to development of the resource.</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4809,20 +5089,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>datacite:RelatedPerson</t>
+          <t>datacite:ProjectManager</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>ProjectManager</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Person officially designated as manager of a project. Project may consist of one or many project teams and sub-teams.</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4842,20 +5126,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>datacite:Researcher</t>
+          <t>datacite:ProjectMember</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Researcher</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>ProjectMember</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Person on the membership list of a designated project/project team.</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4875,20 +5163,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>datacite:ResearchGroup</t>
+          <t>datacite:RegistrationAgency</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ResearchGroup</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>RegistrationAgency</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Institution/organisation officially appointed by a Registration Authority to handle specific tasks within a defined area of responsibility.</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4908,20 +5200,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>datacite:RightsHolder</t>
+          <t>datacite:RegistrationAuthority</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>RightsHolder</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>RegistrationAuthority</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>A standards-setting body from which Registration Agencies obtain official recognition and guidance.</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4941,20 +5237,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>datacite:Sponsor</t>
+          <t>datacite:RelatedPerson</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sponsor</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>RelatedPerson</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A person without a specifically defined role in the development of the resource, but who is someone the author wishes to recognize.</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4974,20 +5274,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>datacite:Supervisor</t>
+          <t>datacite:Researcher</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Supervisor</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>Researcher</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>A person involved in analysing data or the results of an experiment or formal study. May indicate an intern or assistant to one of the authors who helped with research but who was not so “key” as to be listed as an author.</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -5007,20 +5311,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>datacite:WorkPackageLeader</t>
+          <t>datacite:ResearchGroup</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>WorkPackageLeader</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>ResearchGroup</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Typically refers to a group of individuals with a lab, department, or division that has a specifically defined focus of activity.</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -5040,20 +5348,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>datacite:OtherContributorType</t>
+          <t>datacite:RightsHolder</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>RightsHolder</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Person or institution owning or managing property rights, including intellectual property rights over the resource.</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>datacite:ContributorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -5073,18 +5385,26 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>datacite:ResourceCreatorType</t>
+          <t>datacite:Sponsor</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Resource Creator Type</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>Sponsor</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Person or organisation that issued a contract or under the auspices of which a work has been written, printed, published, developed, etc.</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>datacite:contributorType</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -5102,20 +5422,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>datacite:Person</t>
+          <t>datacite:Supervisor</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>Supervisor</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Designated administrator over one or more groups/teams working to produce a resource, or over one or more steps of a development process.</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>datacite:ResourceCreatorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -5135,20 +5459,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>datacite:Organization</t>
+          <t>datacite:WorkPackageLeader</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>WorkPackageLeader</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>A Work Package is a recognized data product, not all of which is included in publication. The package, instead, may include notes, discarded documents, etc. The Work Package Leader is responsible for ensuring the comprehensive contents, versioning, and availability of the Work Package during the development of the resource.</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>datacite:ResourceCreatorType</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -5168,18 +5496,26 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>datacite:TitleType</t>
+          <t>datacite:OtherContributorType</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Title Type</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Any person or institution making a significant contribution to the development and/or maintenance of the resource, but whose contribution is not adequately described by any of the other values for contributorType.</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>datacite:contributorType</t>
+        </is>
+      </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -5197,22 +5533,18 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>datacite:AlternativeTitle</t>
+          <t>datacite:nameType</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AlternativeTitle</t>
+          <t>nameType</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>datacite:TitleType</t>
-        </is>
-      </c>
+      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -5230,12 +5562,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>datacite:Subtitle</t>
+          <t>datacite:Personal</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Subtitle</t>
+          <t>Personal</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5243,7 +5575,7 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>datacite:TitleType</t>
+          <t>datacite:nameType</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -5263,12 +5595,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>datacite:TranslatedTitle</t>
+          <t>datacite:Organizational</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TranslatedTitle</t>
+          <t>Organizational</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5276,7 +5608,7 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>datacite:TitleType</t>
+          <t>datacite:nameType</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -5296,22 +5628,18 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>datacite:OtherTitle</t>
+          <t>datacite:titleType</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>titleType</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>datacite:TitleType</t>
-        </is>
-      </c>
+      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
@@ -5329,14 +5657,22 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr"/>
+          <t>datacite:AlternativeTitle</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>AlternativeTitle</t>
+        </is>
+      </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>datacite:titleType</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -5354,14 +5690,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
+          <t>datacite:Subtitle</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Subtitle</t>
+        </is>
+      </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>datacite:titleType</t>
+        </is>
+      </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -5379,14 +5723,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr"/>
+          <t>datacite:TranslatedTitle</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>TranslatedTitle</t>
+        </is>
+      </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>datacite:titleType</t>
+        </is>
+      </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -5404,14 +5756,22 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
+          <t>datacite:OtherTitle</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>datacite:titleType</t>
+        </is>
+      </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -5429,10 +5789,14 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
+          <t>datacite:numberType</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>numberType</t>
+        </is>
+      </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
@@ -5454,14 +5818,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr"/>
+          <t>datacite:Article</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>datecite:numberType</t>
+        </is>
+      </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -5479,14 +5851,22 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
+          <t>datacite:Chapter</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Chapter</t>
+        </is>
+      </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>datecite:numberType</t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -5504,14 +5884,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr"/>
+          <t>datacite:Report</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>datecite:numberType</t>
+        </is>
+      </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
@@ -5529,14 +5917,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
+          <t>datacite:Other</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>datecite:numberType</t>
+        </is>
+      </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
@@ -5554,11 +5950,19 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
+          <t>datacite:funderIdentifierType</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>funderIdentifierType</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>The type of the funderIdentifier.</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
@@ -5579,14 +5983,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr"/>
+          <t>datacite:ISNI</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ISNI</t>
+        </is>
+      </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>datacite:funderIdentifierType</t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -5604,14 +6016,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr"/>
+          <t>datacite:GRID</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>GRID</t>
+        </is>
+      </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>datacite:funderIdentifierType</t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -5629,14 +6049,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr"/>
+          <t>datacite:ROR</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ROR</t>
+        </is>
+      </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>datacite:funderIdentifierType</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
@@ -5654,14 +6082,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>datacite:</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
+          <t>datacite:CrossrefFunderID</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Crossref Funder ID</t>
+        </is>
+      </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>datacite:funderIdentifierType</t>
+        </is>
+      </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
@@ -5676,6 +6112,114 @@
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
     </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>datacite:OtherFunderIdentifierType</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>datacite:funderIdentifierType</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>datacite:</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -460,8 +460,16 @@
           <t>Prefixes for controlled vocabularies, schema and ontologies</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -633,8 +641,16 @@
           <t>Metadata about vocabulary</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -437,14 +437,46 @@
           <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr"/>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr"/>
-      <c r="J1" t="inlineStr"/>
-      <c r="K1" t="inlineStr"/>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr"/>
       <c r="N1" t="inlineStr"/>
@@ -460,16 +492,8 @@
           <t>Prefixes for controlled vocabularies, schema and ontologies</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -641,16 +665,8 @@
           <t>Metadata about vocabulary</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -1033,7 +1049,11 @@
           <t>Audiovisual</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FIXME</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S167"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,54 +437,15 @@
           <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
       <c r="L1" t="inlineStr"/>
-      <c r="M1" t="inlineStr"/>
-      <c r="N1" t="inlineStr"/>
-      <c r="O1" t="inlineStr"/>
-      <c r="P1" t="inlineStr"/>
-      <c r="Q1" t="inlineStr"/>
-      <c r="R1" t="inlineStr"/>
-      <c r="S1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,13 +464,6 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -540,13 +494,6 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -577,13 +524,6 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -614,13 +554,6 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -651,13 +584,6 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -676,13 +602,6 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -709,13 +628,6 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -742,13 +654,6 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -775,13 +680,6 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -808,13 +706,6 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -841,13 +732,6 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -874,13 +758,6 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -907,13 +784,6 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -932,13 +802,6 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -997,13 +860,6 @@
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1030,13 +886,6 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1067,13 +916,6 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1100,13 +942,6 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1133,13 +968,6 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1166,13 +994,6 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1199,13 +1020,6 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1232,13 +1046,6 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1265,13 +1072,6 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1298,13 +1098,6 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1331,13 +1124,6 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1364,13 +1150,6 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1397,13 +1176,6 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1430,13 +1202,6 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1463,13 +1228,6 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1496,13 +1254,6 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1529,13 +1280,6 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1562,13 +1306,6 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1595,13 +1332,6 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1628,13 +1358,6 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1661,13 +1384,6 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1694,13 +1410,6 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1727,13 +1436,6 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1760,13 +1462,6 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1793,13 +1488,6 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1826,13 +1514,6 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1859,13 +1540,6 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1892,13 +1566,6 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1925,13 +1592,6 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1958,13 +1618,6 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1991,13 +1644,6 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2024,13 +1670,6 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2057,13 +1696,6 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2098,13 +1730,6 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2139,13 +1764,6 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2180,13 +1798,6 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2221,13 +1832,6 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2262,13 +1866,6 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2303,13 +1900,6 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2344,13 +1934,6 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2385,13 +1968,6 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2426,13 +2002,6 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2467,13 +2036,6 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2508,13 +2070,6 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2549,13 +2104,6 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2590,13 +2138,6 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2631,13 +2172,6 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2672,13 +2206,6 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2713,13 +2240,6 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2754,13 +2274,6 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2795,13 +2308,6 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2836,13 +2342,6 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2869,13 +2368,6 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2902,13 +2394,6 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2935,13 +2420,6 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2968,13 +2446,6 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3001,13 +2472,6 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3034,13 +2498,6 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3067,13 +2524,6 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3100,13 +2550,6 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3133,13 +2576,6 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3166,13 +2602,6 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3199,13 +2628,6 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3232,13 +2654,6 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3265,13 +2680,6 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3298,13 +2706,6 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3331,13 +2732,6 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3364,13 +2758,6 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3397,13 +2784,6 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3430,13 +2810,6 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3463,13 +2836,6 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3496,13 +2862,6 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3529,13 +2888,6 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3562,13 +2914,6 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3595,13 +2940,6 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3628,13 +2966,6 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3661,13 +2992,6 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3694,13 +3018,6 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3727,13 +3044,6 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3760,13 +3070,6 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3793,13 +3096,6 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3826,13 +3122,6 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3859,13 +3148,6 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3892,13 +3174,6 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3925,13 +3200,6 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3958,13 +3226,6 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3991,13 +3252,6 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4024,13 +3278,6 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4057,13 +3304,6 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4086,13 +3326,6 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4123,13 +3356,6 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4160,13 +3386,6 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4197,13 +3416,6 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4234,13 +3446,6 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4271,13 +3476,6 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4308,13 +3506,6 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4341,13 +3532,6 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4378,13 +3562,6 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4415,13 +3592,6 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4452,13 +3622,6 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4489,13 +3652,6 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4526,13 +3682,6 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4563,13 +3712,6 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4600,13 +3742,6 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4637,13 +3772,6 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4674,13 +3802,6 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4711,13 +3832,6 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4748,13 +3862,6 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4781,13 +3888,6 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4818,13 +3918,6 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4855,13 +3948,6 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4892,13 +3978,6 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4929,13 +4008,6 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4966,13 +4038,6 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5003,13 +4068,6 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5040,13 +4098,6 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5077,13 +4128,6 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5114,13 +4158,6 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5151,13 +4188,6 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5188,13 +4218,6 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5225,13 +4248,6 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5262,13 +4278,6 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5299,13 +4308,6 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5336,13 +4338,6 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5373,13 +4368,6 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5410,13 +4398,6 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5447,13 +4428,6 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5484,13 +4458,6 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5521,13 +4488,6 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5558,13 +4518,6 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5587,13 +4540,6 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5620,13 +4566,6 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5653,13 +4592,6 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5682,13 +4614,6 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5715,13 +4640,6 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5748,13 +4666,6 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5781,13 +4692,6 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5814,13 +4718,6 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5843,13 +4740,6 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5876,13 +4766,6 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5909,13 +4792,6 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5942,13 +4818,6 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5975,13 +4844,6 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6008,13 +4870,6 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6041,13 +4896,6 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6074,13 +4922,6 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6107,13 +4948,6 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6140,13 +4974,6 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6173,13 +5000,6 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6198,13 +5018,6 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6223,13 +5036,6 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6248,13 +5054,6 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
